--- a/console/Elastic-Compute/Virtual-Machine/components/netSecurity/sgTableCheckList.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/netSecurity/sgTableCheckList.xlsx
@@ -38,15 +38,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The count of added security groups has reached the upper limit, and can't add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_usable_security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No current available security group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,6 +87,14 @@
       </rPr>
       <t>当前无可用安全组</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available security group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The count of added security groups has reached the upper limit, and can't add.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -498,21 +498,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
